--- a/Test Data/data1.xlsx
+++ b/Test Data/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\km1\Katalon Studio\WebTesting\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02260DC0-9F06-4964-A1BD-2AF68540409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7204CB6B-35CC-4131-8C38-5CEBFE984208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
